--- a/scrum/scrum_sporticide.xlsx
+++ b/scrum/scrum_sporticide.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adrian\OneDrive\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cc0b10a577eabfc1/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8832" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16180" windowHeight="8140" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectTeam" sheetId="3" r:id="rId1"/>
-    <sheet name="Product Backlog" sheetId="1" r:id="rId2"/>
-    <sheet name="Sprint Backlog" sheetId="2" r:id="rId3"/>
+    <sheet name="ProductBacklog" sheetId="1" r:id="rId2"/>
+    <sheet name="SprintBacklog" sheetId="2" r:id="rId3"/>
     <sheet name="BurndownChart" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162912"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="113">
   <si>
     <t>Name</t>
   </si>
@@ -93,6 +93,9 @@
     <t>User can log into existing account</t>
   </si>
   <si>
+    <t>high</t>
+  </si>
+  <si>
     <t>open</t>
   </si>
   <si>
@@ -108,6 +111,9 @@
     <t>User can subscribe to one or more sports (soccer, cycling, boxing, soccer)</t>
   </si>
   <si>
+    <t>low</t>
+  </si>
+  <si>
     <t>create trainings</t>
   </si>
   <si>
@@ -135,7 +141,7 @@
     <t>What properties are listed in the statistic?</t>
   </si>
   <si>
-    <t>publish training</t>
+    <t>public training</t>
   </si>
   <si>
     <t>User can create, edit and delete public trainings</t>
@@ -168,6 +174,9 @@
     <t>information for team-trainings can be logged</t>
   </si>
   <si>
+    <t>medium</t>
+  </si>
+  <si>
     <t>user can create teams</t>
   </si>
   <si>
@@ -276,67 +285,82 @@
     <t>Reviewer</t>
   </si>
   <si>
-    <t>Patient Model</t>
-  </si>
-  <si>
-    <t>Data model for patient record needs to be created based on standard....</t>
-  </si>
-  <si>
-    <t>Database</t>
-  </si>
-  <si>
-    <t>Martin</t>
-  </si>
-  <si>
-    <t>Hans</t>
-  </si>
-  <si>
-    <t>medium</t>
+    <t>Define Application Structure</t>
+  </si>
+  <si>
+    <t>Discuss Models, Controllers and Relations</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>Apply Application Structure</t>
+  </si>
+  <si>
+    <t>Create models &amp; controllers</t>
+  </si>
+  <si>
+    <t>Andreas</t>
+  </si>
+  <si>
+    <t>CyberCoach Integration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Analyse CyberCoach Project and Integrate it </t>
   </si>
   <si>
     <t>waiting</t>
   </si>
   <si>
-    <t>UI, Controller</t>
-  </si>
-  <si>
-    <t>Jennifer</t>
-  </si>
-  <si>
-    <t>high</t>
+    <t>Login &amp; Register &amp; Edit</t>
+  </si>
+  <si>
+    <t>Devise</t>
+  </si>
+  <si>
+    <t>Model, Controller</t>
+  </si>
+  <si>
+    <t>Adrian</t>
+  </si>
+  <si>
+    <t>Facebook Integration (Login)</t>
+  </si>
+  <si>
+    <t>Connection to fb</t>
+  </si>
+  <si>
+    <t>Initial GUI with Bootstrap</t>
+  </si>
+  <si>
+    <t>Tune all views with Bootstrap to take as a basis and set template</t>
+  </si>
+  <si>
+    <t>UI</t>
   </si>
   <si>
     <t>work in progress</t>
   </si>
   <si>
-    <t>All</t>
-  </si>
-  <si>
-    <t>Tom</t>
-  </si>
-  <si>
-    <t>done</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>cancelled</t>
-  </si>
-  <si>
-    <t>Main Window</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sprint </t>
   </si>
   <si>
     <t>Time of Record</t>
   </si>
   <si>
+    <t>Ideal Curve</t>
+  </si>
+  <si>
     <t>Remaining Effort</t>
   </si>
   <si>
     <t>Remaining Ressources</t>
+  </si>
+  <si>
+    <t>21.10,2015</t>
   </si>
 </sst>
 </file>
@@ -392,7 +416,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -413,6 +437,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -428,6 +453,1049 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Remaining Effort</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>BurndownChart!$D$2:$D$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2D46-4DB3-AB56-4035410B716F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Remaining Ressources</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>BurndownChart!$E$2:$E$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>31.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>27.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>23.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2D46-4DB3-AB56-4035410B716F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Ideal Burndown</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>BurndownChart!$C$2:$C$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27.066666666666666</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25.133333333333333</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21.266666666666666</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19.333333333333332</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15.466666666666665</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13.533333333333331</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11.599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.6666666666666643</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.7333333333333307</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.7999999999999972</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.8666666666666636</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.9333333333333302</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2D46-4DB3-AB56-4035410B716F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1575768967"/>
+        <c:axId val="1575770759"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1575768967"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1575770759"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1575770759"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1575768967"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="0"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D348F775-AE90-414F-A484-A3B37B3BFB34}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -786,7 +1854,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
@@ -803,7 +1871,7 @@
     <col min="9" max="9" width="71.140625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" ht="30">
+    <row r="1" spans="1:9" s="3" customFormat="1" ht="29.1">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -832,7 +1900,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" ht="15">
+    <row r="2" spans="1:9" s="1" customFormat="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -842,564 +1910,645 @@
       <c r="C2" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="D2" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="E2" s="1">
         <v>2</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="30">
+    <row r="3" spans="1:9" ht="29.1">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="30">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="29.1">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="D4" t="s">
+        <v>29</v>
       </c>
       <c r="E4">
         <v>3</v>
       </c>
       <c r="H4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="60">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="43.5">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
       </c>
       <c r="E5">
         <v>4</v>
       </c>
       <c r="H5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="30">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="29.1">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
       </c>
       <c r="E6">
         <v>5</v>
       </c>
       <c r="H6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="30">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="29.1">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
       </c>
       <c r="E7">
         <v>8</v>
       </c>
       <c r="H7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="30">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
+      </c>
+      <c r="D8" t="s">
+        <v>23</v>
       </c>
       <c r="E8">
         <v>2</v>
       </c>
       <c r="H8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
       </c>
       <c r="E9">
         <v>2</v>
       </c>
       <c r="H9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="30">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="29.1">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
       </c>
       <c r="E10">
         <v>2</v>
       </c>
       <c r="H10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="30">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="29.1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
       </c>
       <c r="E11">
         <v>3</v>
       </c>
       <c r="H11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="15">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
+      </c>
+      <c r="D12" t="s">
+        <v>50</v>
       </c>
       <c r="E12">
         <v>3</v>
       </c>
       <c r="H12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>49</v>
+        <v>52</v>
+      </c>
+      <c r="D13" t="s">
+        <v>50</v>
       </c>
       <c r="E13">
         <v>1</v>
       </c>
       <c r="H13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="30">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" t="s">
         <v>50</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="E14">
         <v>2</v>
       </c>
       <c r="H14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="H15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="60">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="57.95">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
+      </c>
+      <c r="D16" t="s">
+        <v>50</v>
       </c>
       <c r="E16">
         <v>3</v>
       </c>
       <c r="H16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="30">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="29.1">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
+      </c>
+      <c r="D17" t="s">
+        <v>50</v>
       </c>
       <c r="E17">
         <v>2</v>
       </c>
       <c r="H17" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="30">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="29.1">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>59</v>
+        <v>62</v>
+      </c>
+      <c r="D18" t="s">
+        <v>50</v>
       </c>
       <c r="E18">
         <v>2</v>
       </c>
       <c r="H18" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>61</v>
+        <v>64</v>
+      </c>
+      <c r="D19" t="s">
+        <v>50</v>
       </c>
       <c r="E19">
         <v>3</v>
       </c>
       <c r="H19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="45">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="29.1">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>63</v>
+        <v>66</v>
+      </c>
+      <c r="D20" t="s">
+        <v>29</v>
       </c>
       <c r="E20">
         <v>6</v>
       </c>
       <c r="H20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="45">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="29.1">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>65</v>
+        <v>68</v>
+      </c>
+      <c r="D21" t="s">
+        <v>50</v>
       </c>
       <c r="E21">
         <v>6</v>
       </c>
       <c r="H21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>67</v>
+        <v>70</v>
+      </c>
+      <c r="D22" t="s">
+        <v>50</v>
       </c>
       <c r="E22">
         <v>12</v>
       </c>
       <c r="H22" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="30">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
+      </c>
+      <c r="D23" t="s">
+        <v>50</v>
       </c>
       <c r="E23">
         <v>1</v>
       </c>
       <c r="H23" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
+      </c>
+      <c r="D24" t="s">
+        <v>50</v>
       </c>
       <c r="E24">
         <v>10</v>
       </c>
       <c r="H24" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="90">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="87">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>73</v>
+        <v>76</v>
+      </c>
+      <c r="D25" t="s">
+        <v>50</v>
       </c>
       <c r="E25">
         <v>3</v>
       </c>
       <c r="H25" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
+      </c>
+      <c r="D26" t="s">
+        <v>23</v>
       </c>
       <c r="E26">
         <v>8</v>
       </c>
       <c r="H26" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="30">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="29.1">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
+      </c>
+      <c r="D27" t="s">
+        <v>23</v>
       </c>
       <c r="E27">
         <v>6</v>
       </c>
       <c r="H27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>79</v>
+        <v>82</v>
+      </c>
+      <c r="D28" t="s">
+        <v>50</v>
       </c>
       <c r="E28">
         <v>10</v>
       </c>
       <c r="H28" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="15">
+    <row r="30" spans="1:8">
       <c r="A30">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="15">
+    <row r="31" spans="1:8">
       <c r="A31">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="15">
+    <row r="32" spans="1:8">
       <c r="A32" s="1">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="15">
+    <row r="33" spans="1:1">
       <c r="A33">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="15">
+    <row r="34" spans="1:1">
       <c r="A34">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1" ht="15">
+    <row r="35" spans="1:1">
       <c r="A35" s="1">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1" ht="15">
+    <row r="36" spans="1:1">
       <c r="A36">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1" ht="15">
+    <row r="37" spans="1:1">
       <c r="A37">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:1" ht="15">
+    <row r="38" spans="1:1">
       <c r="A38" s="1">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:1" ht="15">
+    <row r="39" spans="1:1">
       <c r="A39">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:1" ht="15">
+    <row r="40" spans="1:1">
       <c r="A40">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:1" ht="15">
+    <row r="41" spans="1:1">
       <c r="A41" s="1">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:1" ht="15">
+    <row r="42" spans="1:1">
       <c r="A42">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:1" ht="15">
+    <row r="43" spans="1:1">
       <c r="A43">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:1" ht="15">
+    <row r="44" spans="1:1">
       <c r="A44" s="1">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="15">
+    <row r="45" spans="1:1">
       <c r="A45">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:1" ht="15">
+    <row r="46" spans="1:1">
       <c r="A46">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:1" ht="15">
+    <row r="47" spans="1:1">
       <c r="A47" s="1">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:1" ht="15">
+    <row r="48" spans="1:1">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1412,19 +2561,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.28515625" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="47.28515625" customWidth="1"/>
+    <col min="4" max="4" width="58" customWidth="1"/>
+    <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.28515625" customWidth="1"/>
     <col min="7" max="7" width="9.7109375" customWidth="1"/>
     <col min="8" max="8" width="8.28515625" customWidth="1"/>
@@ -1434,12 +2583,12 @@
     <col min="12" max="12" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="4" customFormat="1" ht="43.15">
+    <row r="1" spans="1:12" s="4" customFormat="1" ht="43.5">
       <c r="A1" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>0</v>
@@ -1448,13 +2597,13 @@
         <v>14</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>15</v>
@@ -1472,39 +2621,36 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="57.6">
+    <row r="2" spans="1:12">
       <c r="A2">
         <v>1.1000000000000001</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H2" t="s">
-        <v>89</v>
+        <v>23</v>
       </c>
       <c r="I2">
         <v>2</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>2</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
       </c>
       <c r="L2" t="s">
         <v>90</v>
@@ -1515,128 +2661,165 @@
         <v>1.2</v>
       </c>
       <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G3" t="s">
+        <v>89</v>
+      </c>
+      <c r="H3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3">
         <v>2</v>
       </c>
-      <c r="E3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F3" t="s">
-        <v>88</v>
-      </c>
-      <c r="G3" t="s">
-        <v>92</v>
-      </c>
-      <c r="H3" t="s">
-        <v>93</v>
-      </c>
-      <c r="I3">
-        <v>8</v>
-      </c>
-      <c r="J3">
-        <v>6</v>
-      </c>
       <c r="K3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
+      <c r="C4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D4" t="s">
+        <v>95</v>
+      </c>
       <c r="E4" t="s">
-        <v>95</v>
-      </c>
-      <c r="F4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4">
+        <v>6</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4" t="s">
         <v>96</v>
-      </c>
-      <c r="H4" t="s">
-        <v>93</v>
-      </c>
-      <c r="I4">
-        <v>16</v>
-      </c>
-      <c r="J4">
-        <v>20</v>
-      </c>
-      <c r="K4">
-        <f>SUM(J4:J4)</f>
-        <v>20</v>
-      </c>
-      <c r="L4" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
+      <c r="C5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D5" t="s">
+        <v>98</v>
+      </c>
       <c r="E5" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="F5" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="G5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H5" t="s">
-        <v>98</v>
+        <v>23</v>
       </c>
       <c r="I5">
-        <v>4</v>
-      </c>
-      <c r="J5">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="K5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L5" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6">
-        <v>2.2000000000000002</v>
+        <v>1.4</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D6" t="s">
+        <v>102</v>
       </c>
       <c r="E6" t="s">
-        <v>100</v>
-      </c>
-      <c r="F6" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="G6" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H6" t="s">
-        <v>93</v>
+        <v>23</v>
       </c>
       <c r="I6">
         <v>8</v>
       </c>
-      <c r="J6">
-        <v>6</v>
-      </c>
       <c r="K6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L6" t="s">
-        <v>94</v>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7">
+        <v>1.6</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G7" t="s">
+        <v>89</v>
+      </c>
+      <c r="H7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7">
+        <v>3</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -1646,63 +2829,273 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
   <cols>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" customWidth="1"/>
+    <col min="6" max="6" width="25.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="5" customFormat="1" ht="26.45" customHeight="1">
+    <row r="1" spans="1:5" s="5" customFormat="1" ht="26.45" customHeight="1">
       <c r="A1" s="5" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>110</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="6">
-        <v>42262</v>
-      </c>
-      <c r="C2">
-        <v>200</v>
+        <v>42283</v>
+      </c>
+      <c r="C2" s="8">
+        <v>29</v>
       </c>
       <c r="D2">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>24</v>
+      </c>
+      <c r="E2">
+        <v>31.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" s="6">
-        <v>42263</v>
-      </c>
-      <c r="C3">
-        <v>190</v>
+        <v>42284</v>
+      </c>
+      <c r="C3" s="8">
+        <f>C2 - 29/15</f>
+        <v>27.066666666666666</v>
       </c>
       <c r="D3">
-        <v>180</v>
+        <v>22</v>
+      </c>
+      <c r="E3">
+        <v>27.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="6">
+        <v>42285</v>
+      </c>
+      <c r="C4" s="8">
+        <f>C3 - 29/15</f>
+        <v>25.133333333333333</v>
+      </c>
+      <c r="D4">
+        <v>22</v>
+      </c>
+      <c r="E4">
+        <v>27.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" s="6">
+        <v>42286</v>
+      </c>
+      <c r="C5" s="8">
+        <f>C4 - 29/15</f>
+        <v>23.2</v>
+      </c>
+      <c r="D5">
+        <v>22</v>
+      </c>
+      <c r="E5">
+        <v>27.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" s="6">
+        <v>42287</v>
+      </c>
+      <c r="C6" s="8">
+        <f t="shared" ref="C6:C16" si="0">C5 - 29/15</f>
+        <v>21.266666666666666</v>
+      </c>
+      <c r="D6">
+        <v>22</v>
+      </c>
+      <c r="E6">
+        <v>27.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" s="6">
+        <v>42288</v>
+      </c>
+      <c r="C7" s="8">
+        <f t="shared" si="0"/>
+        <v>19.333333333333332</v>
+      </c>
+      <c r="D7">
+        <v>18</v>
+      </c>
+      <c r="E7">
+        <v>25.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" s="6">
+        <v>42289</v>
+      </c>
+      <c r="C8" s="8">
+        <f t="shared" si="0"/>
+        <v>17.399999999999999</v>
+      </c>
+      <c r="D8">
+        <v>16</v>
+      </c>
+      <c r="E8">
+        <v>23.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" s="6">
+        <v>42290</v>
+      </c>
+      <c r="C9" s="8">
+        <f t="shared" si="0"/>
+        <v>15.466666666666665</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" s="6">
+        <v>42291</v>
+      </c>
+      <c r="C10" s="8">
+        <f t="shared" si="0"/>
+        <v>13.533333333333331</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" s="6">
+        <v>42292</v>
+      </c>
+      <c r="C11" s="8">
+        <f t="shared" si="0"/>
+        <v>11.599999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" s="6">
+        <v>42293</v>
+      </c>
+      <c r="C12" s="8">
+        <f t="shared" si="0"/>
+        <v>9.6666666666666643</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13" s="6">
+        <v>42294</v>
+      </c>
+      <c r="C13" s="8">
+        <f t="shared" si="0"/>
+        <v>7.7333333333333307</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" s="6">
+        <v>42295</v>
+      </c>
+      <c r="C14" s="8">
+        <f t="shared" si="0"/>
+        <v>5.7999999999999972</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15" s="6">
+        <v>42296</v>
+      </c>
+      <c r="C15" s="8">
+        <f t="shared" si="0"/>
+        <v>3.8666666666666636</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16" s="6">
+        <v>42297</v>
+      </c>
+      <c r="C16" s="8">
+        <f t="shared" si="0"/>
+        <v>1.9333333333333302</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>112</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/scrum/scrum_sporticide.xlsx
+++ b/scrum/scrum_sporticide.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="115">
   <si>
     <t>Name</t>
   </si>
@@ -343,6 +343,12 @@
   </si>
   <si>
     <t>work in progress</t>
+  </si>
+  <si>
+    <t>Training Controller, Training session</t>
+  </si>
+  <si>
+    <t>Simple functionality</t>
   </si>
   <si>
     <t xml:space="preserve">Sprint </t>
@@ -440,7 +446,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -500,24 +506,27 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>24</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>22</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>22</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>18</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
@@ -574,6 +583,9 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>23.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -835,6 +847,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2561,7 +2574,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="J8" sqref="J8"/>
@@ -2822,6 +2835,35 @@
         <v>106</v>
       </c>
     </row>
+    <row r="8" spans="1:12">
+      <c r="C8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D8" t="s">
+        <v>108</v>
+      </c>
+      <c r="E8" t="s">
+        <v>89</v>
+      </c>
+      <c r="F8" t="s">
+        <v>93</v>
+      </c>
+      <c r="G8" t="s">
+        <v>89</v>
+      </c>
+      <c r="H8" t="s">
+        <v>50</v>
+      </c>
+      <c r="I8">
+        <v>3</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8" t="s">
+        <v>90</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2846,19 +2888,19 @@
   <sheetData>
     <row r="1" spans="1:5" s="5" customFormat="1" ht="26.45" customHeight="1">
       <c r="A1" s="5" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2872,7 +2914,7 @@
         <v>29</v>
       </c>
       <c r="D2">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E2">
         <v>31.2</v>
@@ -2890,7 +2932,7 @@
         <v>27.066666666666666</v>
       </c>
       <c r="D3">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E3">
         <v>27.2</v>
@@ -2908,7 +2950,7 @@
         <v>25.133333333333333</v>
       </c>
       <c r="D4">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>27.2</v>
@@ -2926,7 +2968,7 @@
         <v>23.2</v>
       </c>
       <c r="D5">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>27.2</v>
@@ -2944,7 +2986,7 @@
         <v>21.266666666666666</v>
       </c>
       <c r="D6">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E6">
         <v>27.2</v>
@@ -2962,7 +3004,7 @@
         <v>19.333333333333332</v>
       </c>
       <c r="D7">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>25.2</v>
@@ -2980,7 +3022,7 @@
         <v>17.399999999999999</v>
       </c>
       <c r="D8">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E8">
         <v>23.2</v>
@@ -2997,6 +3039,12 @@
         <f t="shared" si="0"/>
         <v>15.466666666666665</v>
       </c>
+      <c r="D9">
+        <v>16</v>
+      </c>
+      <c r="E9">
+        <v>20.2</v>
+      </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
@@ -3087,7 +3135,7 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C17">
         <v>0</v>

--- a/scrum/scrum_sporticide.xlsx
+++ b/scrum/scrum_sporticide.xlsx
@@ -408,9 +408,8 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF595959"/>
-      <name val="Calibri"/>
+      <sz val="10"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -468,7 +467,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -505,10 +504,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -535,7 +530,7 @@
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF4F81BD"/>
+      <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FFC0504D"/>
       <rgbColor rgb="FFFFFFCC"/>
@@ -566,7 +561,7 @@
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF595959"/>
+      <rgbColor rgb="FF4F81BD"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF10243E"/>
       <rgbColor rgb="FF339966"/>
@@ -614,6 +609,15 @@
               <a:round/>
             </a:ln>
           </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
           <c:dLbls>
             <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
@@ -706,6 +710,15 @@
               <a:round/>
             </a:ln>
           </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
           <c:dLbls>
             <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
@@ -798,6 +811,15 @@
               <a:round/>
             </a:ln>
           </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
           <c:dLbls>
             <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
@@ -890,6 +912,28 @@
           </c:marker>
           <c:smooth val="0"/>
         </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="99ccff"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:smooth val="0"/>
+        </c:ser>
         <c:hiLowLines>
           <c:spPr>
             <a:ln>
@@ -903,11 +947,11 @@
           <c:downBars/>
         </c:upDownBars>
         <c:marker val="1"/>
-        <c:axId val="58042542"/>
-        <c:axId val="87830512"/>
+        <c:axId val="53981398"/>
+        <c:axId val="39962110"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="58042542"/>
+        <c:axId val="53981398"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -924,14 +968,14 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="87830512"/>
+        <c:crossAx val="39962110"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="87830512"/>
+        <c:axId val="39962110"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -955,7 +999,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="58042542"/>
+        <c:crossAx val="53981398"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:dTable>
@@ -1001,15 +1045,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>360360</xdr:colOff>
+      <xdr:colOff>387360</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>19440</xdr:rowOff>
+      <xdr:rowOff>10440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>122040</xdr:colOff>
+      <xdr:colOff>148680</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>174240</xdr:rowOff>
+      <xdr:rowOff>164880</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1017,8 +1061,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8209440" y="538560"/>
-        <a:ext cx="6060960" cy="2724120"/>
+        <a:off x="8236440" y="529560"/>
+        <a:ext cx="6060600" cy="2723760"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1838,8 +1882,8 @@
   </sheetPr>
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K6" activeCellId="0" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -2062,11 +2106,14 @@
       <c r="I6" s="0" t="n">
         <v>8</v>
       </c>
+      <c r="J6" s="0" t="n">
+        <v>12</v>
+      </c>
       <c r="K6" s="0" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2186,7 +2233,7 @@
       <c r="B2" s="8" t="n">
         <v>42283</v>
       </c>
-      <c r="C2" s="9" t="n">
+      <c r="C2" s="0" t="n">
         <v>29</v>
       </c>
       <c r="D2" s="0" t="n">
@@ -2203,7 +2250,7 @@
       <c r="B3" s="8" t="n">
         <v>42284</v>
       </c>
-      <c r="C3" s="9" t="n">
+      <c r="C3" s="0" t="n">
         <f aca="false">C2 - 29/15</f>
         <v>27.0666666666667</v>
       </c>
@@ -2221,7 +2268,7 @@
       <c r="B4" s="8" t="n">
         <v>42285</v>
       </c>
-      <c r="C4" s="9" t="n">
+      <c r="C4" s="0" t="n">
         <f aca="false">C3 - 29/15</f>
         <v>25.1333333333333</v>
       </c>
@@ -2239,7 +2286,7 @@
       <c r="B5" s="8" t="n">
         <v>42286</v>
       </c>
-      <c r="C5" s="9" t="n">
+      <c r="C5" s="0" t="n">
         <f aca="false">C4 - 29/15</f>
         <v>23.2</v>
       </c>
@@ -2257,7 +2304,7 @@
       <c r="B6" s="8" t="n">
         <v>42287</v>
       </c>
-      <c r="C6" s="9" t="n">
+      <c r="C6" s="0" t="n">
         <f aca="false">C5 - 29/15</f>
         <v>21.2666666666667</v>
       </c>
@@ -2275,7 +2322,7 @@
       <c r="B7" s="8" t="n">
         <v>42288</v>
       </c>
-      <c r="C7" s="9" t="n">
+      <c r="C7" s="0" t="n">
         <f aca="false">C6 - 29/15</f>
         <v>19.3333333333333</v>
       </c>
@@ -2293,7 +2340,7 @@
       <c r="B8" s="8" t="n">
         <v>42289</v>
       </c>
-      <c r="C8" s="9" t="n">
+      <c r="C8" s="0" t="n">
         <f aca="false">C7 - 29/15</f>
         <v>17.4</v>
       </c>
@@ -2311,7 +2358,7 @@
       <c r="B9" s="8" t="n">
         <v>42290</v>
       </c>
-      <c r="C9" s="9" t="n">
+      <c r="C9" s="0" t="n">
         <f aca="false">C8 - 29/15</f>
         <v>15.4666666666667</v>
       </c>
@@ -2329,7 +2376,7 @@
       <c r="B10" s="8" t="n">
         <v>42291</v>
       </c>
-      <c r="C10" s="9" t="n">
+      <c r="C10" s="0" t="n">
         <f aca="false">C9 - 29/15</f>
         <v>13.5333333333333</v>
       </c>
@@ -2341,7 +2388,7 @@
       <c r="B11" s="8" t="n">
         <v>42292</v>
       </c>
-      <c r="C11" s="9" t="n">
+      <c r="C11" s="0" t="n">
         <f aca="false">C10 - 29/15</f>
         <v>11.6</v>
       </c>
@@ -2353,7 +2400,7 @@
       <c r="B12" s="8" t="n">
         <v>42293</v>
       </c>
-      <c r="C12" s="9" t="n">
+      <c r="C12" s="0" t="n">
         <f aca="false">C11 - 29/15</f>
         <v>9.66666666666666</v>
       </c>
@@ -2365,7 +2412,7 @@
       <c r="B13" s="8" t="n">
         <v>42294</v>
       </c>
-      <c r="C13" s="9" t="n">
+      <c r="C13" s="0" t="n">
         <f aca="false">C12 - 29/15</f>
         <v>7.73333333333333</v>
       </c>
@@ -2377,7 +2424,7 @@
       <c r="B14" s="8" t="n">
         <v>42295</v>
       </c>
-      <c r="C14" s="9" t="n">
+      <c r="C14" s="0" t="n">
         <f aca="false">C13 - 29/15</f>
         <v>5.8</v>
       </c>
@@ -2389,7 +2436,7 @@
       <c r="B15" s="8" t="n">
         <v>42296</v>
       </c>
-      <c r="C15" s="9" t="n">
+      <c r="C15" s="0" t="n">
         <f aca="false">C14 - 29/15</f>
         <v>3.86666666666666</v>
       </c>
@@ -2401,7 +2448,7 @@
       <c r="B16" s="8" t="n">
         <v>42297</v>
       </c>
-      <c r="C16" s="9" t="n">
+      <c r="C16" s="0" t="n">
         <f aca="false">C15 - 29/15</f>
         <v>1.93333333333333</v>
       </c>

--- a/scrum/scrum_sporticide.xlsx
+++ b/scrum/scrum_sporticide.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10130" windowHeight="8140" firstSheet="3" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20450" windowHeight="7770" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectTeam" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="164">
   <si>
     <t>Name</t>
   </si>
@@ -105,43 +105,43 @@
     <t>User can register on the platform (height, weight, location, preferences, etc.)</t>
   </si>
   <si>
+    <t>subscribe to sport</t>
+  </si>
+  <si>
+    <t>User can subscribe to one or more sports (soccer, cycling, boxing, soccer)</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>create trainings</t>
+  </si>
+  <si>
+    <t>User can create, edit and delete a training with location, time, outside/inside and training level properties of a sport he's subscribed to.</t>
+  </si>
+  <si>
+    <t>What are the properties of a training?</t>
+  </si>
+  <si>
+    <t>log training</t>
+  </si>
+  <si>
+    <t>user can log infomation about the training like length, well-beeing, fitness level.</t>
+  </si>
+  <si>
+    <t>Could we utilize an already existing app to do the tracking and then use the data of that application? Endomondo, Runtastic, Nike+ Running</t>
+  </si>
+  <si>
+    <t>view statistics</t>
+  </si>
+  <si>
+    <t>user can see statitics about his trainings like number of trainings, average training time</t>
+  </si>
+  <si>
     <t>open</t>
   </si>
   <si>
-    <t>subscribe to sport</t>
-  </si>
-  <si>
-    <t>User can subscribe to one or more sports (soccer, cycling, boxing, soccer)</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>create trainings</t>
-  </si>
-  <si>
-    <t>User can create, edit and delete a training with location, time, outside/inside and training level properties of a sport he's subscribed to.</t>
-  </si>
-  <si>
-    <t>What are the properties of a training?</t>
-  </si>
-  <si>
-    <t>log training</t>
-  </si>
-  <si>
-    <t>user can log infomation about the training like length, well-beeing, fitness level.</t>
-  </si>
-  <si>
-    <t>Could we utilize an already existing app to do the tracking and then use the data of that application? Endomondo, Runtastic, Nike+ Running</t>
-  </si>
-  <si>
-    <t>view statistics</t>
-  </si>
-  <si>
-    <t>user can see statitics about his trainings like number of trainings, average training time</t>
-  </si>
-  <si>
-    <t>What properties are listed in the statistic?</t>
+    <t>sprint 4</t>
   </si>
   <si>
     <t>public training</t>
@@ -204,6 +204,9 @@
     <t>Trainings with locations show weather information. Subscribed members get a message if the weather cast is bad one day before the outside training.</t>
   </si>
   <si>
+    <t>work in progress</t>
+  </si>
+  <si>
     <t>location map</t>
   </si>
   <si>
@@ -216,6 +219,9 @@
     <t>User can see a calendar with scheduled trainings and can subscribe to it (.ical Feed)</t>
   </si>
   <si>
+    <t>sprint 5</t>
+  </si>
+  <si>
     <t>Compare Trainings</t>
   </si>
   <si>
@@ -276,6 +282,12 @@
     <t>User sees traveling time to training</t>
   </si>
   <si>
+    <t>GUI</t>
+  </si>
+  <si>
+    <t>Choose template and integrate it</t>
+  </si>
+  <si>
     <t>Sprint</t>
   </si>
   <si>
@@ -387,7 +399,7 @@
     <t>Extend training (training session, logs)</t>
   </si>
   <si>
-    <t>Add training sessions and logs functionality</t>
+    <t>Add training sessions and logs functionality inclusive rating</t>
   </si>
   <si>
     <t>Trainings</t>
@@ -399,9 +411,6 @@
     <t>Controller</t>
   </si>
   <si>
-    <t>work in progress</t>
-  </si>
-  <si>
     <t>8.11.15</t>
   </si>
   <si>
@@ -420,7 +429,7 @@
     <t>UI, Controller</t>
   </si>
   <si>
-    <t>waiting</t>
+    <t>15.11.15</t>
   </si>
   <si>
     <t>Friendship handling</t>
@@ -453,7 +462,19 @@
     <t>Invite to training</t>
   </si>
   <si>
-    <t>Rate training</t>
+    <t>Invite a friend to training</t>
+  </si>
+  <si>
+    <t>17.11.15</t>
+  </si>
+  <si>
+    <t>Weekly trainings</t>
+  </si>
+  <si>
+    <t>E-Mail notification</t>
+  </si>
+  <si>
+    <t>Write Email one day before training starts</t>
   </si>
   <si>
     <t xml:space="preserve">Sprint </t>
@@ -490,6 +511,9 @@
   </si>
   <si>
     <t>LV: friendship task</t>
+  </si>
+  <si>
+    <t>AH: subscribe in cybercoach &amp; store data on cybercoach</t>
   </si>
 </sst>
 </file>
@@ -591,9 +615,9 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="8">
     <dxf>
       <font>
         <color theme="9" tint="-0.24994659260841701"/>
@@ -621,6 +645,56 @@
       <fill>
         <patternFill>
           <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -677,7 +751,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="1"/>
       <c:spPr>
         <a:noFill/>
@@ -1088,7 +1161,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1696,19 +1768,13 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Sprint</a:t>
+              <a:rPr lang="af-ZA"/>
+              <a:t>Sprint 3</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> 3</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
+      <c:overlay val="1"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1744,7 +1810,7 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:v>Remaining Effort</c:v>
@@ -1763,33 +1829,54 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>BurndownChart!$D$33:$D$40</c:f>
+              <c:f>BurndownChart!$D$33:$D$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>40</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>34</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>34</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>34</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>34</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>34</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>34</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>34</c:v>
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1797,15 +1884,15 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-F640-4B80-9657-82E6E8E74364}"/>
+              <c16:uniqueId val="{00000000-D77F-4A65-824F-6253BB7BA408}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
+          <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Remaining Resources</c:v>
+            <c:v>Remaining Ressources</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -1821,10 +1908,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>BurndownChart!$E$33:$E$40</c:f>
+              <c:f>BurndownChart!$E$33:$E$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>31.2</c:v>
                 </c:pt>
@@ -1838,16 +1925,37 @@
                   <c:v>26.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>26.2</c:v>
+                  <c:v>18.2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>26.2</c:v>
+                  <c:v>18.2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>26.2</c:v>
+                  <c:v>18.2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>18.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18.2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18.2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18.2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>18.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18.2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>18.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1855,12 +1963,12 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-F640-4B80-9657-82E6E8E74364}"/>
+              <c16:uniqueId val="{00000001-D77F-4A65-824F-6253BB7BA408}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
             <c:v>Ideal Burndown</c:v>
@@ -1868,7 +1976,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="92D050"/>
+                <a:schemeClr val="accent3"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1879,32 +1987,53 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>BurndownChart!$C$33:$C$40</c:f>
+              <c:f>BurndownChart!$C$33:$C$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>34.285714285714285</c:v>
+                  <c:v>37.142857142857146</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28.571428571428569</c:v>
+                  <c:v>34.285714285714292</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22.857142857142854</c:v>
+                  <c:v>31.428571428571434</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>17.142857142857139</c:v>
+                  <c:v>28.571428571428577</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11.428571428571423</c:v>
+                  <c:v>25.714285714285719</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.7142857142857091</c:v>
+                  <c:v>22.857142857142861</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>20.000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17.142857142857146</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14.285714285714288</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.428571428571431</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.571428571428573</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.7142857142857153</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.8571428571428581</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1913,7 +2042,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F640-4B80-9657-82E6E8E74364}"/>
+              <c16:uniqueId val="{00000002-D77F-4A65-824F-6253BB7BA408}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1926,16 +2055,17 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="488795112"/>
-        <c:axId val="488797080"/>
+        <c:axId val="1575768967"/>
+        <c:axId val="1575770759"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="488795112"/>
+        <c:axId val="1575768967"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1972,7 +2102,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="488797080"/>
+        <c:crossAx val="1575770759"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1980,10 +2110,9 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="488797080"/>
+        <c:axId val="1575770759"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="40"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2032,11 +2161,9 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="488795112"/>
+        <c:crossAx val="1575768967"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="10"/>
-        <c:minorUnit val="5"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -2047,8 +2174,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
+      <c:legendPos val="b"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2109,7 +2235,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3862,26 +3988,28 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
+      <xdr:colOff>330200</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>412750</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
+      <xdr:colOff>412749</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Diagramm 7">
+        <xdr:cNvPr id="5" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D348F775-AE90-414F-A484-A3B37B3BFB34}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -4254,8 +4382,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView topLeftCell="B8" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
@@ -4268,7 +4396,7 @@
     <col min="6" max="6" width="13.140625" customWidth="1"/>
     <col min="7" max="7" width="10.140625" customWidth="1"/>
     <col min="8" max="8" width="14.42578125" customWidth="1"/>
-    <col min="9" max="9" width="71.140625" style="7" customWidth="1"/>
+    <col min="9" max="9" width="56" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="3" customFormat="1" ht="29.1">
@@ -4338,7 +4466,7 @@
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="29.1">
@@ -4346,19 +4474,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="D4" t="s">
         <v>29</v>
-      </c>
-      <c r="D4" t="s">
-        <v>30</v>
       </c>
       <c r="E4">
         <v>3</v>
       </c>
       <c r="H4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="43.5">
@@ -4366,10 +4494,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
@@ -4378,21 +4506,21 @@
         <v>4</v>
       </c>
       <c r="H5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="29.1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="43.5">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>35</v>
       </c>
       <c r="D6" t="s">
         <v>23</v>
@@ -4401,10 +4529,10 @@
         <v>5</v>
       </c>
       <c r="H6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="29.1">
@@ -4412,10 +4540,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>38</v>
       </c>
       <c r="D7" t="s">
         <v>23</v>
@@ -4424,7 +4552,7 @@
         <v>8</v>
       </c>
       <c r="H7" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="I7" s="7" t="s">
         <v>39</v>
@@ -4447,7 +4575,7 @@
         <v>2</v>
       </c>
       <c r="H8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -4467,7 +4595,10 @@
         <v>2</v>
       </c>
       <c r="H9" t="s">
-        <v>27</v>
+        <v>38</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="29.1">
@@ -4487,7 +4618,7 @@
         <v>2</v>
       </c>
       <c r="H10" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="29.1">
@@ -4507,7 +4638,7 @@
         <v>3</v>
       </c>
       <c r="H11" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I11" s="7" t="s">
         <v>48</v>
@@ -4530,7 +4661,7 @@
         <v>3</v>
       </c>
       <c r="H12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -4550,7 +4681,7 @@
         <v>1</v>
       </c>
       <c r="H13" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -4570,7 +4701,7 @@
         <v>2</v>
       </c>
       <c r="H14" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -4590,7 +4721,7 @@
         <v>1</v>
       </c>
       <c r="H15" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="57.95">
@@ -4610,38 +4741,38 @@
         <v>3</v>
       </c>
       <c r="H16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="29.1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="29.1">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D17" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="E17">
         <v>2</v>
       </c>
       <c r="H17" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="29.1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="29.1">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D18" t="s">
         <v>51</v>
@@ -4650,18 +4781,21 @@
         <v>2</v>
       </c>
       <c r="H18" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D19" t="s">
         <v>51</v>
@@ -4670,58 +4804,64 @@
         <v>3</v>
       </c>
       <c r="H19" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="29.1">
+        <v>38</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="29.1">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E20">
         <v>6</v>
       </c>
       <c r="H20" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="29.1">
+        <v>38</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="29.1">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D21" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="E21">
         <v>6</v>
       </c>
       <c r="H21" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D22" t="s">
         <v>51</v>
@@ -4730,18 +4870,18 @@
         <v>12</v>
       </c>
       <c r="H22" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D23" t="s">
         <v>51</v>
@@ -4750,18 +4890,18 @@
         <v>1</v>
       </c>
       <c r="H23" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D24" t="s">
         <v>51</v>
@@ -4770,18 +4910,21 @@
         <v>10</v>
       </c>
       <c r="H24" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="87">
+        <v>38</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="87">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D25" t="s">
         <v>51</v>
@@ -4790,18 +4933,21 @@
         <v>3</v>
       </c>
       <c r="H25" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D26" t="s">
         <v>23</v>
@@ -4810,38 +4956,41 @@
         <v>8</v>
       </c>
       <c r="H26" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="29.1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="29.1">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D27" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E27">
         <v>6</v>
       </c>
       <c r="H27" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D28" t="s">
         <v>51</v>
@@ -4850,25 +4999,43 @@
         <v>10</v>
       </c>
       <c r="H28" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:8">
+      <c r="B29" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>10</v>
+      </c>
+      <c r="H29" t="s">
+        <v>38</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:9">
       <c r="A31">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:9">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -4954,17 +5121,38 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="D2">
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
+      <formula>"high"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1:D1048576">
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
+      <formula>"high"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+      <formula>"medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+      <formula>"low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H1:H1048576">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>"closed"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
@@ -4988,7 +5176,7 @@
         <v>12</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>0</v>
@@ -4997,13 +5185,13 @@
         <v>14</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>15</v>
@@ -5021,7 +5209,7 @@
         <v>19</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="9" customFormat="1">
@@ -5032,19 +5220,19 @@
         <v>1</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="H2" s="9" t="s">
         <v>23</v>
@@ -5056,7 +5244,7 @@
         <v>2</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="9" customFormat="1">
@@ -5067,16 +5255,16 @@
         <v>1</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="H3" s="9" t="s">
         <v>23</v>
@@ -5088,7 +5276,7 @@
         <v>2</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:13" s="9" customFormat="1">
@@ -5099,13 +5287,13 @@
         <v>1</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="H4" s="9" t="s">
         <v>23</v>
@@ -5117,7 +5305,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:13" s="9" customFormat="1">
@@ -5128,19 +5316,19 @@
         <v>1</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="H5" s="9" t="s">
         <v>23</v>
@@ -5152,7 +5340,7 @@
         <v>1</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:13" s="9" customFormat="1">
@@ -5163,16 +5351,16 @@
         <v>1</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D6" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="E6" s="9" t="s">
-        <v>100</v>
-      </c>
       <c r="F6" s="9" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H6" s="9" t="s">
         <v>23</v>
@@ -5187,10 +5375,10 @@
         <v>22.2</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:13" s="9" customFormat="1">
@@ -5201,13 +5389,13 @@
         <v>1</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="H7" s="9" t="s">
         <v>23</v>
@@ -5219,7 +5407,7 @@
         <v>1</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="9" customFormat="1">
@@ -5230,19 +5418,19 @@
         <v>1</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="H8" s="9" t="s">
         <v>23</v>
@@ -5254,7 +5442,7 @@
         <v>3</v>
       </c>
       <c r="L8" s="9" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -5265,16 +5453,16 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="D9" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E9" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="F9" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="H9" t="s">
         <v>23</v>
@@ -5286,10 +5474,10 @@
         <v>5.5</v>
       </c>
       <c r="L9" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="M9" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -5300,22 +5488,22 @@
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D10" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E10" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="F10" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="G10" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="H10" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="I10">
         <v>10</v>
@@ -5327,7 +5515,7 @@
         <v>14</v>
       </c>
       <c r="L10" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -5338,16 +5526,16 @@
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D11" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E11" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="F11" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="H11" t="s">
         <v>23</v>
@@ -5359,7 +5547,7 @@
         <v>3</v>
       </c>
       <c r="L11" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -5370,16 +5558,16 @@
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D12" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E12" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="F12" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="H12" t="s">
         <v>23</v>
@@ -5387,11 +5575,14 @@
       <c r="I12">
         <v>6</v>
       </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
       <c r="L12" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="M12" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -5402,16 +5593,16 @@
         <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D13" t="s">
+        <v>131</v>
+      </c>
+      <c r="E13" t="s">
         <v>128</v>
       </c>
-      <c r="E13" t="s">
-        <v>124</v>
-      </c>
       <c r="F13" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="H13" t="s">
         <v>23</v>
@@ -5419,11 +5610,14 @@
       <c r="I13">
         <v>6</v>
       </c>
+      <c r="K13">
+        <v>5</v>
+      </c>
       <c r="L13" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="M13" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14" spans="1:13" s="9" customFormat="1">
@@ -5434,28 +5628,28 @@
         <v>2</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I14" s="9">
         <v>6</v>
       </c>
       <c r="L14" s="9" t="s">
-        <v>132</v>
+        <v>60</v>
       </c>
       <c r="M14" s="9" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15" spans="1:13" s="9" customFormat="1">
@@ -5466,16 +5660,16 @@
         <v>3</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="H15" s="9" t="s">
         <v>51</v>
@@ -5487,10 +5681,10 @@
         <v>5</v>
       </c>
       <c r="L15" s="9" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="M15" s="9" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16" spans="1:13" s="9" customFormat="1">
@@ -5501,16 +5695,16 @@
         <v>3</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="H16" s="9" t="s">
         <v>51</v>
@@ -5519,7 +5713,7 @@
         <v>5</v>
       </c>
       <c r="L16" s="9" t="s">
-        <v>132</v>
+        <v>60</v>
       </c>
       <c r="M16" s="9" t="s">
         <v>135</v>
@@ -5533,16 +5727,16 @@
         <v>3</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="H17" s="9" t="s">
         <v>51</v>
@@ -5551,10 +5745,10 @@
         <v>3</v>
       </c>
       <c r="L17" s="9" t="s">
-        <v>132</v>
+        <v>60</v>
       </c>
       <c r="M17" s="9" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="18" spans="1:13" s="9" customFormat="1">
@@ -5565,16 +5759,16 @@
         <v>3</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H18" s="9" t="s">
         <v>51</v>
@@ -5583,26 +5777,103 @@
         <v>6</v>
       </c>
       <c r="L18" s="9" t="s">
-        <v>132</v>
+        <v>60</v>
       </c>
       <c r="M18" s="9" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
-      <c r="B19">
+    <row r="19" spans="1:13" s="9" customFormat="1">
+      <c r="A19" s="9">
+        <v>3.6</v>
+      </c>
+      <c r="B19" s="9">
+        <v>3</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="I19" s="9">
         <v>4</v>
       </c>
-      <c r="C19" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
-      <c r="B20">
-        <v>4</v>
-      </c>
-      <c r="C20" t="s">
-        <v>143</v>
+      <c r="L19" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="M19" s="9" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" s="9" customFormat="1">
+      <c r="A20" s="9">
+        <v>3.7</v>
+      </c>
+      <c r="B20" s="9">
+        <v>3</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="I20" s="9">
+        <v>3</v>
+      </c>
+      <c r="L20" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="M20" s="9" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" s="9" customFormat="1">
+      <c r="A21" s="9">
+        <v>3.8</v>
+      </c>
+      <c r="B21" s="9">
+        <v>3</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="I21" s="9">
+        <v>3</v>
+      </c>
+      <c r="L21" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="M21" s="9" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -5624,10 +5895,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
@@ -5641,19 +5912,19 @@
   <sheetData>
     <row r="1" spans="1:5" s="5" customFormat="1" ht="26.45" customHeight="1">
       <c r="A1" s="5" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -5959,7 +6230,7 @@
         <v>31.2</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="11" customFormat="1">
@@ -5980,7 +6251,7 @@
         <v>25.2</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="11" customFormat="1">
@@ -6001,7 +6272,7 @@
         <v>17.2</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="11" customFormat="1">
@@ -6202,7 +6473,7 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
     </row>
     <row r="32" spans="1:6" s="11" customFormat="1">
@@ -6222,7 +6493,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
     </row>
     <row r="33" spans="1:6" s="14" customFormat="1">
@@ -6236,13 +6507,13 @@
         <v>40</v>
       </c>
       <c r="D33" s="14">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E33" s="14">
         <v>31.2</v>
       </c>
       <c r="F33" s="14" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
     </row>
     <row r="34" spans="1:6" s="14" customFormat="1">
@@ -6253,17 +6524,17 @@
         <v>42313</v>
       </c>
       <c r="C34" s="15">
-        <f>C33 - 40/7</f>
-        <v>34.285714285714285</v>
+        <f>C33 - 40/14</f>
+        <v>37.142857142857146</v>
       </c>
       <c r="D34" s="14">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="E34" s="14">
         <v>26.2</v>
       </c>
       <c r="F34" s="14" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
     </row>
     <row r="35" spans="1:6" s="14" customFormat="1">
@@ -6274,11 +6545,11 @@
         <v>42314</v>
       </c>
       <c r="C35" s="15">
-        <f>C34 - 40/7</f>
-        <v>28.571428571428569</v>
+        <f>C34 - 40/14</f>
+        <v>34.285714285714292</v>
       </c>
       <c r="D35" s="14">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="E35" s="14">
         <v>26.2</v>
@@ -6292,11 +6563,11 @@
         <v>42315</v>
       </c>
       <c r="C36" s="15">
-        <f t="shared" ref="C36:C40" si="2">C35 - 40/7</f>
-        <v>22.857142857142854</v>
+        <f t="shared" ref="C36:C47" si="2">C35 - 40/14</f>
+        <v>31.428571428571434</v>
       </c>
       <c r="D36" s="14">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="E36" s="14">
         <v>26.2</v>
@@ -6311,13 +6582,16 @@
       </c>
       <c r="C37" s="15">
         <f t="shared" si="2"/>
-        <v>17.142857142857139</v>
+        <v>28.571428571428577</v>
       </c>
       <c r="D37" s="14">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E37" s="14">
-        <v>26.2</v>
+        <v>18.2</v>
+      </c>
+      <c r="F37" s="14" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="38" spans="1:6" s="14" customFormat="1">
@@ -6329,13 +6603,13 @@
       </c>
       <c r="C38" s="15">
         <f t="shared" si="2"/>
-        <v>11.428571428571423</v>
+        <v>25.714285714285719</v>
       </c>
       <c r="D38" s="14">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E38" s="14">
-        <v>26.2</v>
+        <v>18.2</v>
       </c>
     </row>
     <row r="39" spans="1:6" s="14" customFormat="1">
@@ -6347,13 +6621,13 @@
       </c>
       <c r="C39" s="15">
         <f t="shared" si="2"/>
-        <v>5.7142857142857091</v>
+        <v>22.857142857142861</v>
       </c>
       <c r="D39" s="14">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E39" s="14">
-        <v>26.2</v>
+        <v>18.2</v>
       </c>
     </row>
     <row r="40" spans="1:6" s="14" customFormat="1">
@@ -6365,14 +6639,146 @@
       </c>
       <c r="C40" s="15">
         <f t="shared" si="2"/>
+        <v>20.000000000000004</v>
+      </c>
+      <c r="D40" s="14">
+        <v>32</v>
+      </c>
+      <c r="E40" s="14">
+        <v>18.2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="14">
+        <v>3</v>
+      </c>
+      <c r="B41" s="6">
+        <v>42320</v>
+      </c>
+      <c r="C41" s="15">
+        <f t="shared" si="2"/>
+        <v>17.142857142857146</v>
+      </c>
+      <c r="D41" s="14">
+        <v>32</v>
+      </c>
+      <c r="E41" s="14">
+        <v>18.2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="14">
+        <v>3</v>
+      </c>
+      <c r="B42" s="16">
+        <v>42321</v>
+      </c>
+      <c r="C42" s="15">
+        <f t="shared" si="2"/>
+        <v>14.285714285714288</v>
+      </c>
+      <c r="D42" s="14">
+        <v>32</v>
+      </c>
+      <c r="E42" s="14">
+        <v>18.2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="14">
+        <v>3</v>
+      </c>
+      <c r="B43" s="6">
+        <v>42322</v>
+      </c>
+      <c r="C43" s="15">
+        <f t="shared" si="2"/>
+        <v>11.428571428571431</v>
+      </c>
+      <c r="D43" s="14">
+        <v>32</v>
+      </c>
+      <c r="E43" s="14">
+        <v>18.2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="14">
+        <v>3</v>
+      </c>
+      <c r="B44" s="16">
+        <v>42323</v>
+      </c>
+      <c r="C44" s="15">
+        <f t="shared" si="2"/>
+        <v>8.571428571428573</v>
+      </c>
+      <c r="D44" s="14">
+        <v>32</v>
+      </c>
+      <c r="E44" s="14">
+        <v>18.2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="14">
+        <v>3</v>
+      </c>
+      <c r="B45" s="6">
+        <v>42324</v>
+      </c>
+      <c r="C45" s="15">
+        <f t="shared" si="2"/>
+        <v>5.7142857142857153</v>
+      </c>
+      <c r="D45" s="14">
+        <v>32</v>
+      </c>
+      <c r="E45" s="14">
+        <v>18.2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="14">
+        <v>3</v>
+      </c>
+      <c r="B46" s="16">
+        <v>42325</v>
+      </c>
+      <c r="C46" s="15">
+        <f t="shared" si="2"/>
+        <v>2.8571428571428581</v>
+      </c>
+      <c r="D46" s="14">
+        <v>32</v>
+      </c>
+      <c r="E46" s="14">
+        <v>18.2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="14">
+        <v>3</v>
+      </c>
+      <c r="B47" s="6">
+        <v>42326</v>
+      </c>
+      <c r="C47" s="15">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D40" s="14">
-        <v>34</v>
-      </c>
-      <c r="E40" s="14">
-        <v>0</v>
-      </c>
+      <c r="D47" s="14">
+        <v>32</v>
+      </c>
+      <c r="E47" s="14">
+        <v>18.2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="C48" s="15"/>
+    </row>
+    <row r="49" spans="3:3">
+      <c r="C49" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/scrum/scrum_sporticide.xlsx
+++ b/scrum/scrum_sporticide.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20450" windowHeight="7770" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20450" windowHeight="7770" firstSheet="3" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectTeam" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="174">
   <si>
     <t>Name</t>
   </si>
@@ -138,87 +138,90 @@
     <t>user can see statitics about his trainings like number of trainings, average training time</t>
   </si>
   <si>
+    <t>work in progress</t>
+  </si>
+  <si>
+    <t>based on ratings, routes, duration</t>
+  </si>
+  <si>
+    <t>public training</t>
+  </si>
+  <si>
+    <t>User can create, edit and delete public trainings</t>
+  </si>
+  <si>
+    <t>find trainings</t>
+  </si>
+  <si>
+    <t>User can find public listed trainings</t>
+  </si>
+  <si>
+    <t>sprint 4</t>
+  </si>
+  <si>
+    <t>find partners</t>
+  </si>
+  <si>
+    <t>User can join public trainings (a new team is formed)</t>
+  </si>
+  <si>
+    <t>schedule training with partner</t>
+  </si>
+  <si>
+    <t>teams can have trainings</t>
+  </si>
+  <si>
+    <t>Are teams something like organisations in github? Or do they only exist as long the training exists?</t>
+  </si>
+  <si>
+    <t>log training with partner</t>
+  </si>
+  <si>
+    <t>information for team-trainings can be logged</t>
+  </si>
+  <si>
+    <t>medium</t>
+  </si>
+  <si>
+    <t>user can create teams</t>
+  </si>
+  <si>
+    <t>user can invite other users to trainings</t>
+  </si>
+  <si>
+    <t>teams can schedule trainings</t>
+  </si>
+  <si>
+    <t>teams can have a team-training</t>
+  </si>
+  <si>
+    <t>training location</t>
+  </si>
+  <si>
+    <t>the user can specify the training location</t>
+  </si>
+  <si>
+    <t>location weather</t>
+  </si>
+  <si>
+    <t>Trainings with locations show weather information. Subscribed members get a message if the weather cast is bad one day before the outside training.</t>
+  </si>
+  <si>
+    <t>location map</t>
+  </si>
+  <si>
+    <t>trainings with location show a map of the trainingplace</t>
+  </si>
+  <si>
+    <t>Calendar</t>
+  </si>
+  <si>
+    <t>User can see a calendar with scheduled trainings and can subscribe to it (.ical Feed)</t>
+  </si>
+  <si>
     <t>open</t>
   </si>
   <si>
-    <t>sprint 4</t>
-  </si>
-  <si>
-    <t>public training</t>
-  </si>
-  <si>
-    <t>User can create, edit and delete public trainings</t>
-  </si>
-  <si>
-    <t>find trainings</t>
-  </si>
-  <si>
-    <t>User can find public listed trainings</t>
-  </si>
-  <si>
-    <t>find partners</t>
-  </si>
-  <si>
-    <t>User can join public trainings (a new team is formed)</t>
-  </si>
-  <si>
-    <t>schedule training with partner</t>
-  </si>
-  <si>
-    <t>teams can have trainings</t>
-  </si>
-  <si>
-    <t>Are teams something like organisations in github? Or do they only exist as long the training exists?</t>
-  </si>
-  <si>
-    <t>log training with partner</t>
-  </si>
-  <si>
-    <t>information for team-trainings can be logged</t>
-  </si>
-  <si>
-    <t>medium</t>
-  </si>
-  <si>
-    <t>user can create teams</t>
-  </si>
-  <si>
-    <t>user can invite other users to trainings</t>
-  </si>
-  <si>
-    <t>teams can schedule trainings</t>
-  </si>
-  <si>
-    <t>teams can have a team-training</t>
-  </si>
-  <si>
-    <t>training location</t>
-  </si>
-  <si>
-    <t>the user can specify the training location</t>
-  </si>
-  <si>
-    <t>location weather</t>
-  </si>
-  <si>
-    <t>Trainings with locations show weather information. Subscribed members get a message if the weather cast is bad one day before the outside training.</t>
-  </si>
-  <si>
-    <t>work in progress</t>
-  </si>
-  <si>
-    <t>location map</t>
-  </si>
-  <si>
-    <t>trainings with location show a map of the trainingplace</t>
-  </si>
-  <si>
-    <t>Calendar</t>
-  </si>
-  <si>
-    <t>User can see a calendar with scheduled trainings and can subscribe to it (.ical Feed)</t>
-  </si>
-  <si>
     <t>sprint 5</t>
   </si>
   <si>
@@ -258,12 +261,6 @@
     <t>User can send a message to another user.</t>
   </si>
   <si>
-    <t>Team trainings settings</t>
-  </si>
-  <si>
-    <t>User can set a maximum and a minimum of members needed for a training. No more than the set maximum can join a training. If the minimum is not reached before a specified time all joined members get a message that the training is canceled.</t>
-  </si>
-  <si>
     <t>Facebook Login</t>
   </si>
   <si>
@@ -429,6 +426,9 @@
     <t>UI, Controller</t>
   </si>
   <si>
+    <t>bugfix</t>
+  </si>
+  <si>
     <t>15.11.15</t>
   </si>
   <si>
@@ -477,6 +477,24 @@
     <t>Write Email one day before training starts</t>
   </si>
   <si>
+    <t>Find Training</t>
+  </si>
+  <si>
+    <t>based on location, date, category, name, owner</t>
+  </si>
+  <si>
+    <t>Event Creation</t>
+  </si>
+  <si>
+    <t>Statistics about Training</t>
+  </si>
+  <si>
+    <t>About duration</t>
+  </si>
+  <si>
+    <t>iCal Feed and Calendar View on template (Full Calendar)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sprint </t>
   </si>
   <si>
@@ -514,6 +532,18 @@
   </si>
   <si>
     <t>AH: subscribe in cybercoach &amp; store data on cybercoach</t>
+  </si>
+  <si>
+    <t>LV: Invite to training</t>
+  </si>
+  <si>
+    <t>KS: Google Maps</t>
+  </si>
+  <si>
+    <t>AH: Weekly training</t>
+  </si>
+  <si>
+    <t>49: 29 + 20 last task (BUT just bugfixing)</t>
   </si>
 </sst>
 </file>
@@ -615,7 +645,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="8">
     <dxf>
@@ -751,6 +781,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="1"/>
       <c:spPr>
         <a:noFill/>
@@ -1161,6 +1192,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1837,46 +1869,46 @@
                   <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>32</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>32</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>32</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>32</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>32</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>32</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>32</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>32</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>32</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1937,25 +1969,25 @@
                   <c:v>18.2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18.2</c:v>
+                  <c:v>16.2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>18.2</c:v>
+                  <c:v>16.2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>18.2</c:v>
+                  <c:v>16.2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>18.2</c:v>
+                  <c:v>12.2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>18.2</c:v>
+                  <c:v>9.1999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>18.2</c:v>
+                  <c:v>9.1999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>18.2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1992,46 +2024,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>40</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>37.142857142857146</c:v>
+                  <c:v>46.428571428571431</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>34.285714285714292</c:v>
+                  <c:v>42.857142857142861</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>31.428571428571434</c:v>
+                  <c:v>39.285714285714292</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>28.571428571428577</c:v>
+                  <c:v>35.714285714285722</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>25.714285714285719</c:v>
+                  <c:v>32.142857142857153</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>22.857142857142861</c:v>
+                  <c:v>28.57142857142858</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>20.000000000000004</c:v>
+                  <c:v>25.000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>17.142857142857146</c:v>
+                  <c:v>21.428571428571434</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>14.285714285714288</c:v>
+                  <c:v>17.857142857142861</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11.428571428571431</c:v>
+                  <c:v>14.28571428571429</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8.571428571428573</c:v>
+                  <c:v>10.714285714285719</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.7142857142857153</c:v>
+                  <c:v>7.1428571428571477</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.8571428571428581</c:v>
+                  <c:v>3.5714285714285761</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0</c:v>
@@ -2043,6 +2075,513 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-D77F-4A65-824F-6253BB7BA408}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1575768967"/>
+        <c:axId val="1575770759"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1575768967"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1575770759"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1575770759"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1575768967"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="af-ZA"/>
+              <a:t>Sprint 4</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Remaining Effort</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>BurndownChart!$D$48:$D$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>49</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3733-4240-B2E4-741CF1382BF9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Remaining Ressources</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>BurndownChart!$E$48:$E$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>31.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>31.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>31.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>31.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>31.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>31.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>31.2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>31.2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>31.2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>31.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>31.2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>31.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3733-4240-B2E4-741CF1382BF9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Ideal Burndown</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>BurndownChart!$C$48:$C$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>38.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>31.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3733-4240-B2E4-741CF1382BF9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2361,6 +2900,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -3394,6 +3973,522 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4018,6 +5113,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>336550</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>419099</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D348F775-AE90-414F-A484-A3B37B3BFB34}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4382,8 +5515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
@@ -4598,7 +5731,7 @@
         <v>38</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="29.1">
@@ -4606,10 +5739,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D10" t="s">
         <v>23</v>
@@ -4626,10 +5759,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D11" t="s">
         <v>23</v>
@@ -4641,7 +5774,7 @@
         <v>24</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -4649,13 +5782,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -4669,13 +5802,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" t="s">
         <v>52</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D13" t="s">
-        <v>51</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -4689,13 +5822,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E14">
         <v>2</v>
@@ -4709,10 +5842,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D15" t="s">
         <v>23</v>
@@ -4729,19 +5862,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E16">
         <v>3</v>
       </c>
       <c r="H16" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="29.1">
@@ -4761,7 +5894,7 @@
         <v>2</v>
       </c>
       <c r="H17" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="29.1">
@@ -4775,16 +5908,16 @@
         <v>64</v>
       </c>
       <c r="D18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E18">
         <v>2</v>
       </c>
       <c r="H18" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -4792,22 +5925,22 @@
         <v>18</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D19" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E19">
         <v>3</v>
       </c>
       <c r="H19" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="29.1">
@@ -4815,10 +5948,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D20" t="s">
         <v>29</v>
@@ -4827,10 +5960,10 @@
         <v>6</v>
       </c>
       <c r="H20" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="29.1">
@@ -4838,10 +5971,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D21" t="s">
         <v>23</v>
@@ -4850,7 +5983,7 @@
         <v>6</v>
       </c>
       <c r="H21" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -4858,19 +5991,19 @@
         <v>21</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D22" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E22">
         <v>12</v>
       </c>
       <c r="H22" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -4878,13 +6011,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D23" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -4898,13 +6031,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D24" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E24">
         <v>10</v>
@@ -4913,30 +6046,7 @@
         <v>38</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="87">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="D25" t="s">
-        <v>51</v>
-      </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="H25" t="s">
-        <v>38</v>
-      </c>
-      <c r="I25" s="7" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -4944,10 +6054,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C26" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="D26" t="s">
         <v>23</v>
@@ -4964,10 +6074,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C27" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="D27" t="s">
         <v>29</v>
@@ -4979,7 +6089,7 @@
         <v>38</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -4987,19 +6097,19 @@
         <v>27</v>
       </c>
       <c r="B28" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C28" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="C28" s="7" t="s">
-        <v>85</v>
-      </c>
       <c r="D28" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E28">
         <v>10</v>
       </c>
       <c r="H28" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -5007,10 +6117,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C29" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="D29" t="s">
         <v>23</v>
@@ -5019,10 +6129,10 @@
         <v>10</v>
       </c>
       <c r="H29" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -5149,10 +6259,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView topLeftCell="C10" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
@@ -5169,6 +6279,7 @@
     <col min="10" max="10" width="9.140625" customWidth="1"/>
     <col min="11" max="11" width="7.28515625" customWidth="1"/>
     <col min="12" max="12" width="15.28515625" customWidth="1"/>
+    <col min="13" max="13" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="4" customFormat="1" ht="43.5">
@@ -5176,7 +6287,7 @@
         <v>12</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>0</v>
@@ -5185,13 +6296,13 @@
         <v>14</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>90</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>91</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>15</v>
@@ -5209,7 +6320,7 @@
         <v>19</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="9" customFormat="1">
@@ -5220,19 +6331,19 @@
         <v>1</v>
       </c>
       <c r="C2" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="E2" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="E2" s="9" t="s">
-        <v>95</v>
-      </c>
       <c r="F2" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H2" s="9" t="s">
         <v>23</v>
@@ -5244,7 +6355,7 @@
         <v>2</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="9" customFormat="1">
@@ -5255,16 +6366,16 @@
         <v>1</v>
       </c>
       <c r="C3" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="E3" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="F3" s="9" t="s">
         <v>98</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>99</v>
       </c>
       <c r="H3" s="9" t="s">
         <v>23</v>
@@ -5276,7 +6387,7 @@
         <v>2</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:13" s="9" customFormat="1">
@@ -5287,13 +6398,13 @@
         <v>1</v>
       </c>
       <c r="C4" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>101</v>
-      </c>
       <c r="E4" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H4" s="9" t="s">
         <v>23</v>
@@ -5305,7 +6416,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:13" s="9" customFormat="1">
@@ -5316,19 +6427,19 @@
         <v>1</v>
       </c>
       <c r="C5" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="E5" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="F5" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="G5" s="9" t="s">
         <v>105</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>106</v>
       </c>
       <c r="H5" s="9" t="s">
         <v>23</v>
@@ -5340,7 +6451,7 @@
         <v>1</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:13" s="9" customFormat="1">
@@ -5351,16 +6462,16 @@
         <v>1</v>
       </c>
       <c r="C6" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="E6" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F6" s="9" t="s">
         <v>108</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>109</v>
       </c>
       <c r="H6" s="9" t="s">
         <v>23</v>
@@ -5375,10 +6486,10 @@
         <v>22.2</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:13" s="9" customFormat="1">
@@ -5389,13 +6500,13 @@
         <v>1</v>
       </c>
       <c r="C7" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="E7" s="9" t="s">
         <v>112</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>113</v>
       </c>
       <c r="H7" s="9" t="s">
         <v>23</v>
@@ -5407,7 +6518,7 @@
         <v>1</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="9" customFormat="1">
@@ -5418,19 +6529,19 @@
         <v>1</v>
       </c>
       <c r="C8" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="E8" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="G8" s="9" t="s">
         <v>115</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>116</v>
       </c>
       <c r="H8" s="9" t="s">
         <v>23</v>
@@ -5442,7 +6553,7 @@
         <v>3</v>
       </c>
       <c r="L8" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -5453,16 +6564,16 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
+        <v>116</v>
+      </c>
+      <c r="D9" t="s">
         <v>117</v>
       </c>
-      <c r="D9" t="s">
-        <v>118</v>
-      </c>
       <c r="E9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H9" t="s">
         <v>23</v>
@@ -5474,10 +6585,10 @@
         <v>5.5</v>
       </c>
       <c r="L9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -5488,22 +6599,22 @@
         <v>2</v>
       </c>
       <c r="C10" t="s">
+        <v>118</v>
+      </c>
+      <c r="D10" t="s">
         <v>119</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
+        <v>94</v>
+      </c>
+      <c r="F10" t="s">
         <v>120</v>
       </c>
-      <c r="E10" t="s">
-        <v>95</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>121</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>122</v>
-      </c>
-      <c r="H10" t="s">
-        <v>123</v>
       </c>
       <c r="I10">
         <v>10</v>
@@ -5515,7 +6626,7 @@
         <v>14</v>
       </c>
       <c r="L10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -5526,16 +6637,16 @@
         <v>2</v>
       </c>
       <c r="C11" t="s">
+        <v>123</v>
+      </c>
+      <c r="D11" t="s">
         <v>124</v>
       </c>
-      <c r="D11" t="s">
-        <v>125</v>
-      </c>
       <c r="E11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H11" t="s">
         <v>23</v>
@@ -5547,7 +6658,7 @@
         <v>3</v>
       </c>
       <c r="L11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -5558,16 +6669,16 @@
         <v>2</v>
       </c>
       <c r="C12" t="s">
+        <v>125</v>
+      </c>
+      <c r="D12" t="s">
         <v>126</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>127</v>
       </c>
-      <c r="E12" t="s">
-        <v>128</v>
-      </c>
       <c r="F12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H12" t="s">
         <v>23</v>
@@ -5579,10 +6690,10 @@
         <v>3</v>
       </c>
       <c r="L12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -5593,16 +6704,16 @@
         <v>2</v>
       </c>
       <c r="C13" t="s">
+        <v>129</v>
+      </c>
+      <c r="D13" t="s">
         <v>130</v>
       </c>
-      <c r="D13" t="s">
-        <v>131</v>
-      </c>
       <c r="E13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H13" t="s">
         <v>23</v>
@@ -5614,10 +6725,10 @@
         <v>5</v>
       </c>
       <c r="L13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="14" spans="1:13" s="9" customFormat="1">
@@ -5628,16 +6739,16 @@
         <v>2</v>
       </c>
       <c r="C14" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="D14" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="E14" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="E14" s="9" t="s">
-        <v>134</v>
-      </c>
       <c r="F14" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H14" s="9" t="s">
         <v>29</v>
@@ -5645,8 +6756,11 @@
       <c r="I14" s="9">
         <v>6</v>
       </c>
+      <c r="K14" s="9">
+        <v>2</v>
+      </c>
       <c r="L14" s="9" t="s">
-        <v>60</v>
+        <v>134</v>
       </c>
       <c r="M14" s="9" t="s">
         <v>135</v>
@@ -5666,13 +6780,13 @@
         <v>137</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I15" s="9">
         <v>8</v>
@@ -5681,7 +6795,7 @@
         <v>5</v>
       </c>
       <c r="L15" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M15" s="9" t="s">
         <v>138</v>
@@ -5701,19 +6815,19 @@
         <v>140</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I16" s="9">
         <v>5</v>
       </c>
       <c r="L16" s="9" t="s">
-        <v>60</v>
+        <v>134</v>
       </c>
       <c r="M16" s="9" t="s">
         <v>135</v>
@@ -5733,19 +6847,22 @@
         <v>142</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I17" s="9">
         <v>3</v>
       </c>
+      <c r="K17" s="9">
+        <v>4</v>
+      </c>
       <c r="L17" s="9" t="s">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="M17" s="9" t="s">
         <v>138</v>
@@ -5765,19 +6882,19 @@
         <v>144</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I18" s="9">
         <v>6</v>
       </c>
       <c r="L18" s="9" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="M18" s="9" t="s">
         <v>135</v>
@@ -5797,19 +6914,22 @@
         <v>146</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I19" s="9">
         <v>4</v>
       </c>
+      <c r="K19" s="9">
+        <v>2</v>
+      </c>
       <c r="L19" s="9" t="s">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="M19" s="9" t="s">
         <v>147</v>
@@ -5826,19 +6946,22 @@
         <v>148</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I20" s="9">
         <v>3</v>
       </c>
+      <c r="K20" s="9">
+        <v>3</v>
+      </c>
       <c r="L20" s="9" t="s">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="M20" s="9" t="s">
         <v>147</v>
@@ -5858,22 +6981,205 @@
         <v>150</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I21" s="9">
         <v>3</v>
       </c>
       <c r="L21" s="9" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="M21" s="9" t="s">
         <v>147</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="B22">
+        <v>4</v>
+      </c>
+      <c r="C22" t="s">
+        <v>151</v>
+      </c>
+      <c r="D22" t="s">
+        <v>152</v>
+      </c>
+      <c r="E22" t="s">
+        <v>94</v>
+      </c>
+      <c r="F22" t="s">
+        <v>108</v>
+      </c>
+      <c r="H22" t="s">
+        <v>23</v>
+      </c>
+      <c r="I22">
+        <v>5</v>
+      </c>
+      <c r="L22" t="s">
+        <v>38</v>
+      </c>
+      <c r="M22" s="6">
+        <v>42339</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23">
+        <v>4.2</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+      <c r="C23" t="s">
+        <v>153</v>
+      </c>
+      <c r="E23" t="s">
+        <v>94</v>
+      </c>
+      <c r="F23" t="s">
+        <v>108</v>
+      </c>
+      <c r="H23" t="s">
+        <v>52</v>
+      </c>
+      <c r="I23">
+        <v>4</v>
+      </c>
+      <c r="L23" t="s">
+        <v>38</v>
+      </c>
+      <c r="M23" s="6">
+        <v>42339</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24">
+        <v>4.3</v>
+      </c>
+      <c r="B24">
+        <v>4</v>
+      </c>
+      <c r="C24" t="s">
+        <v>154</v>
+      </c>
+      <c r="D24" t="s">
+        <v>155</v>
+      </c>
+      <c r="E24" t="s">
+        <v>94</v>
+      </c>
+      <c r="F24" t="s">
+        <v>115</v>
+      </c>
+      <c r="H24" t="s">
+        <v>23</v>
+      </c>
+      <c r="I24">
+        <v>6</v>
+      </c>
+      <c r="L24" t="s">
+        <v>38</v>
+      </c>
+      <c r="M24" s="6">
+        <v>42339</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="B25">
+        <v>4</v>
+      </c>
+      <c r="C25" t="s">
+        <v>77</v>
+      </c>
+      <c r="E25" t="s">
+        <v>94</v>
+      </c>
+      <c r="F25" t="s">
+        <v>98</v>
+      </c>
+      <c r="H25" t="s">
+        <v>23</v>
+      </c>
+      <c r="I25">
+        <v>6</v>
+      </c>
+      <c r="L25" t="s">
+        <v>38</v>
+      </c>
+      <c r="M25" s="6">
+        <v>42339</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26">
+        <v>4.5</v>
+      </c>
+      <c r="B26">
+        <v>4</v>
+      </c>
+      <c r="C26" t="s">
+        <v>63</v>
+      </c>
+      <c r="D26" t="s">
+        <v>156</v>
+      </c>
+      <c r="E26" t="s">
+        <v>94</v>
+      </c>
+      <c r="F26" t="s">
+        <v>105</v>
+      </c>
+      <c r="H26" t="s">
+        <v>52</v>
+      </c>
+      <c r="I26">
+        <v>3</v>
+      </c>
+      <c r="L26" t="s">
+        <v>38</v>
+      </c>
+      <c r="M26" s="6">
+        <v>42339</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="B27">
+        <v>4</v>
+      </c>
+      <c r="C27" t="s">
+        <v>85</v>
+      </c>
+      <c r="E27" t="s">
+        <v>94</v>
+      </c>
+      <c r="F27" t="s">
+        <v>104</v>
+      </c>
+      <c r="H27" t="s">
+        <v>23</v>
+      </c>
+      <c r="I27">
+        <v>5</v>
+      </c>
+      <c r="L27" t="s">
+        <v>38</v>
+      </c>
+      <c r="M27" s="6">
+        <v>42339</v>
       </c>
     </row>
   </sheetData>
@@ -5895,10 +7201,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F49"/>
+  <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
@@ -5912,19 +7218,19 @@
   <sheetData>
     <row r="1" spans="1:5" s="5" customFormat="1" ht="26.45" customHeight="1">
       <c r="A1" s="5" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -6230,7 +7536,7 @@
         <v>31.2</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="11" customFormat="1">
@@ -6251,7 +7557,7 @@
         <v>25.2</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="11" customFormat="1">
@@ -6272,7 +7578,7 @@
         <v>17.2</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="11" customFormat="1">
@@ -6473,7 +7779,7 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="32" spans="1:6" s="11" customFormat="1">
@@ -6493,7 +7799,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
     </row>
     <row r="33" spans="1:6" s="14" customFormat="1">
@@ -6504,7 +7810,7 @@
         <v>42312</v>
       </c>
       <c r="C33" s="15">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D33" s="14">
         <v>50</v>
@@ -6513,7 +7819,7 @@
         <v>31.2</v>
       </c>
       <c r="F33" s="14" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
     </row>
     <row r="34" spans="1:6" s="14" customFormat="1">
@@ -6524,17 +7830,17 @@
         <v>42313</v>
       </c>
       <c r="C34" s="15">
-        <f>C33 - 40/14</f>
-        <v>37.142857142857146</v>
+        <f>C33 - 50/14</f>
+        <v>46.428571428571431</v>
       </c>
       <c r="D34" s="14">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E34" s="14">
         <v>26.2</v>
       </c>
       <c r="F34" s="14" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
     </row>
     <row r="35" spans="1:6" s="14" customFormat="1">
@@ -6545,11 +7851,11 @@
         <v>42314</v>
       </c>
       <c r="C35" s="15">
-        <f>C34 - 40/14</f>
-        <v>34.285714285714292</v>
+        <f>C34 - 50/14</f>
+        <v>42.857142857142861</v>
       </c>
       <c r="D35" s="14">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E35" s="14">
         <v>26.2</v>
@@ -6563,11 +7869,11 @@
         <v>42315</v>
       </c>
       <c r="C36" s="15">
-        <f t="shared" ref="C36:C47" si="2">C35 - 40/14</f>
-        <v>31.428571428571434</v>
+        <f t="shared" ref="C36:C47" si="2">C35 - 50/14</f>
+        <v>39.285714285714292</v>
       </c>
       <c r="D36" s="14">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E36" s="14">
         <v>26.2</v>
@@ -6582,16 +7888,16 @@
       </c>
       <c r="C37" s="15">
         <f t="shared" si="2"/>
-        <v>28.571428571428577</v>
+        <v>35.714285714285722</v>
       </c>
       <c r="D37" s="14">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E37" s="14">
         <v>18.2</v>
       </c>
       <c r="F37" s="14" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
     </row>
     <row r="38" spans="1:6" s="14" customFormat="1">
@@ -6603,10 +7909,10 @@
       </c>
       <c r="C38" s="15">
         <f t="shared" si="2"/>
-        <v>25.714285714285719</v>
+        <v>32.142857142857153</v>
       </c>
       <c r="D38" s="14">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E38" s="14">
         <v>18.2</v>
@@ -6621,10 +7927,10 @@
       </c>
       <c r="C39" s="15">
         <f t="shared" si="2"/>
-        <v>22.857142857142861</v>
+        <v>28.57142857142858</v>
       </c>
       <c r="D39" s="14">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E39" s="14">
         <v>18.2</v>
@@ -6639,10 +7945,10 @@
       </c>
       <c r="C40" s="15">
         <f t="shared" si="2"/>
-        <v>20.000000000000004</v>
+        <v>25.000000000000007</v>
       </c>
       <c r="D40" s="14">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E40" s="14">
         <v>18.2</v>
@@ -6657,13 +7963,16 @@
       </c>
       <c r="C41" s="15">
         <f t="shared" si="2"/>
-        <v>17.142857142857146</v>
+        <v>21.428571428571434</v>
       </c>
       <c r="D41" s="14">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E41" s="14">
-        <v>18.2</v>
+        <v>16.2</v>
+      </c>
+      <c r="F41" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -6675,13 +7984,13 @@
       </c>
       <c r="C42" s="15">
         <f t="shared" si="2"/>
-        <v>14.285714285714288</v>
+        <v>17.857142857142861</v>
       </c>
       <c r="D42" s="14">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E42" s="14">
-        <v>18.2</v>
+        <v>16.2</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -6693,13 +8002,13 @@
       </c>
       <c r="C43" s="15">
         <f t="shared" si="2"/>
-        <v>11.428571428571431</v>
+        <v>14.28571428571429</v>
       </c>
       <c r="D43" s="14">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E43" s="14">
-        <v>18.2</v>
+        <v>16.2</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -6711,13 +8020,16 @@
       </c>
       <c r="C44" s="15">
         <f t="shared" si="2"/>
-        <v>8.571428571428573</v>
+        <v>10.714285714285719</v>
       </c>
       <c r="D44" s="14">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E44" s="14">
-        <v>18.2</v>
+        <v>12.2</v>
+      </c>
+      <c r="F44" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -6729,13 +8041,16 @@
       </c>
       <c r="C45" s="15">
         <f t="shared" si="2"/>
-        <v>5.7142857142857153</v>
+        <v>7.1428571428571477</v>
       </c>
       <c r="D45" s="14">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="E45" s="14">
-        <v>18.2</v>
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="F45" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -6747,13 +8062,13 @@
       </c>
       <c r="C46" s="15">
         <f t="shared" si="2"/>
-        <v>2.8571428571428581</v>
+        <v>3.5714285714285761</v>
       </c>
       <c r="D46" s="14">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="E46" s="14">
-        <v>18.2</v>
+        <v>9.1999999999999993</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -6764,21 +8079,289 @@
         <v>42326</v>
       </c>
       <c r="C47" s="15">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="D47" s="14">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="E47" s="14">
-        <v>18.2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="C48" s="15"/>
-    </row>
-    <row r="49" spans="3:3">
-      <c r="C49" s="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" s="11" customFormat="1">
+      <c r="A48" s="11">
+        <v>4</v>
+      </c>
+      <c r="B48" s="12">
+        <v>42326</v>
+      </c>
+      <c r="C48" s="13">
+        <v>49</v>
+      </c>
+      <c r="D48" s="11">
+        <v>49</v>
+      </c>
+      <c r="E48" s="11">
+        <v>31.2</v>
+      </c>
+      <c r="F48" s="11" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" s="11" customFormat="1">
+      <c r="A49" s="11">
+        <v>4</v>
+      </c>
+      <c r="B49" s="12">
+        <v>42327</v>
+      </c>
+      <c r="C49" s="13">
+        <f>C48 - 49/14</f>
+        <v>45.5</v>
+      </c>
+      <c r="D49" s="11">
+        <v>49</v>
+      </c>
+      <c r="E49" s="11">
+        <v>31.2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" s="11" customFormat="1">
+      <c r="A50" s="11">
+        <v>4</v>
+      </c>
+      <c r="B50" s="12">
+        <v>42328</v>
+      </c>
+      <c r="C50" s="13">
+        <f>C49 - 49/14</f>
+        <v>42</v>
+      </c>
+      <c r="D50" s="11">
+        <v>49</v>
+      </c>
+      <c r="E50" s="11">
+        <v>31.2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" s="11" customFormat="1">
+      <c r="A51" s="11">
+        <v>4</v>
+      </c>
+      <c r="B51" s="12">
+        <v>42329</v>
+      </c>
+      <c r="C51" s="13">
+        <f t="shared" ref="C51:C62" si="3">C50 - 49/14</f>
+        <v>38.5</v>
+      </c>
+      <c r="D51" s="11">
+        <v>49</v>
+      </c>
+      <c r="E51" s="11">
+        <v>31.2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" s="11" customFormat="1">
+      <c r="A52" s="11">
+        <v>4</v>
+      </c>
+      <c r="B52" s="12">
+        <v>42330</v>
+      </c>
+      <c r="C52" s="13">
+        <f t="shared" si="3"/>
+        <v>35</v>
+      </c>
+      <c r="D52" s="11">
+        <v>49</v>
+      </c>
+      <c r="E52" s="11">
+        <v>31.2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" s="11" customFormat="1">
+      <c r="A53" s="11">
+        <v>4</v>
+      </c>
+      <c r="B53" s="12">
+        <v>42331</v>
+      </c>
+      <c r="C53" s="13">
+        <f t="shared" si="3"/>
+        <v>31.5</v>
+      </c>
+      <c r="D53" s="11">
+        <v>49</v>
+      </c>
+      <c r="E53" s="11">
+        <v>31.2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" s="11" customFormat="1">
+      <c r="A54" s="11">
+        <v>4</v>
+      </c>
+      <c r="B54" s="12">
+        <v>42332</v>
+      </c>
+      <c r="C54" s="13">
+        <f t="shared" si="3"/>
+        <v>28</v>
+      </c>
+      <c r="D54" s="11">
+        <v>49</v>
+      </c>
+      <c r="E54" s="11">
+        <v>31.2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" s="11" customFormat="1">
+      <c r="A55" s="11">
+        <v>4</v>
+      </c>
+      <c r="B55" s="12">
+        <v>42333</v>
+      </c>
+      <c r="C55" s="13">
+        <f t="shared" si="3"/>
+        <v>24.5</v>
+      </c>
+      <c r="D55" s="11">
+        <v>49</v>
+      </c>
+      <c r="E55" s="11">
+        <v>31.2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" s="11" customFormat="1">
+      <c r="A56" s="11">
+        <v>4</v>
+      </c>
+      <c r="B56" s="12">
+        <v>42334</v>
+      </c>
+      <c r="C56" s="13">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
+      <c r="D56" s="11">
+        <v>49</v>
+      </c>
+      <c r="E56" s="11">
+        <v>31.2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" s="11" customFormat="1">
+      <c r="A57" s="11">
+        <v>4</v>
+      </c>
+      <c r="B57" s="12">
+        <v>42335</v>
+      </c>
+      <c r="C57" s="13">
+        <f t="shared" si="3"/>
+        <v>17.5</v>
+      </c>
+      <c r="D57" s="11">
+        <v>49</v>
+      </c>
+      <c r="E57" s="11">
+        <v>31.2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" s="11" customFormat="1">
+      <c r="A58" s="11">
+        <v>4</v>
+      </c>
+      <c r="B58" s="12">
+        <v>42336</v>
+      </c>
+      <c r="C58" s="13">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="D58" s="11">
+        <v>49</v>
+      </c>
+      <c r="E58" s="11">
+        <v>31.2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" s="11" customFormat="1">
+      <c r="A59" s="11">
+        <v>4</v>
+      </c>
+      <c r="B59" s="12">
+        <v>42337</v>
+      </c>
+      <c r="C59" s="13">
+        <f t="shared" si="3"/>
+        <v>10.5</v>
+      </c>
+      <c r="D59" s="11">
+        <v>49</v>
+      </c>
+      <c r="E59" s="11">
+        <v>31.2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" s="11" customFormat="1">
+      <c r="A60" s="11">
+        <v>4</v>
+      </c>
+      <c r="B60" s="12">
+        <v>42338</v>
+      </c>
+      <c r="C60" s="13">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="D60" s="11">
+        <v>49</v>
+      </c>
+      <c r="E60" s="11">
+        <v>31.2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" s="11" customFormat="1">
+      <c r="A61" s="11">
+        <v>4</v>
+      </c>
+      <c r="B61" s="12">
+        <v>42339</v>
+      </c>
+      <c r="C61" s="13">
+        <f t="shared" si="3"/>
+        <v>3.5</v>
+      </c>
+      <c r="D61" s="11">
+        <v>49</v>
+      </c>
+      <c r="E61" s="11">
+        <v>31.2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" s="11" customFormat="1">
+      <c r="A62" s="11">
+        <v>4</v>
+      </c>
+      <c r="B62" s="12">
+        <v>42340</v>
+      </c>
+      <c r="C62" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="D62" s="11">
+        <v>49</v>
+      </c>
+      <c r="E62" s="11">
+        <v>31.2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="B63" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/scrum/scrum_sporticide.xlsx
+++ b/scrum/scrum_sporticide.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="179">
   <si>
     <t>Name</t>
   </si>
@@ -489,7 +489,7 @@
     <t>Statistics about Training</t>
   </si>
   <si>
-    <t>About duration</t>
+    <t>About duration, level, number of trainings, distance, over last 4 weeks</t>
   </si>
   <si>
     <t>iCal Feed and Calendar View on template (Full Calendar)</t>
@@ -544,6 +544,21 @@
   </si>
   <si>
     <t>49: 29 + 20 last task (BUT just bugfixing)</t>
+  </si>
+  <si>
+    <t>PZ: Transportation</t>
+  </si>
+  <si>
+    <t>KS: Email notification</t>
+  </si>
+  <si>
+    <t>AK: Weather</t>
+  </si>
+  <si>
+    <t>PZ: Search</t>
+  </si>
+  <si>
+    <t>LV: Statistics</t>
   </si>
 </sst>
 </file>
@@ -2385,37 +2400,37 @@
                   <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>49</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>49</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>49</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>49</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>49</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>49</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>49</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>49</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>49</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>49</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>49</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2464,37 +2479,37 @@
                   <c:v>31.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>31.2</c:v>
+                  <c:v>28.7</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>31.2</c:v>
+                  <c:v>25.2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>31.2</c:v>
+                  <c:v>22.2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>31.2</c:v>
+                  <c:v>14.2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>31.2</c:v>
+                  <c:v>9.1999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>31.2</c:v>
+                  <c:v>9.1999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>31.2</c:v>
+                  <c:v>9.1999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>31.2</c:v>
+                  <c:v>9.1999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>31.2</c:v>
+                  <c:v>9.1999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>31.2</c:v>
+                  <c:v>9.1999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>31.2</c:v>
+                  <c:v>9.1999999999999993</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6261,8 +6276,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView topLeftCell="C10" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+    <sheetView topLeftCell="D8" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29:J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
@@ -6826,8 +6841,11 @@
       <c r="I16" s="9">
         <v>5</v>
       </c>
+      <c r="K16" s="9">
+        <v>3</v>
+      </c>
       <c r="L16" s="9" t="s">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="M16" s="9" t="s">
         <v>135</v>
@@ -6894,7 +6912,7 @@
         <v>6</v>
       </c>
       <c r="L18" s="9" t="s">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="M18" s="9" t="s">
         <v>135</v>
@@ -6926,7 +6944,7 @@
         <v>4</v>
       </c>
       <c r="K19" s="9">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="L19" s="9" t="s">
         <v>95</v>
@@ -6992,8 +7010,11 @@
       <c r="I21" s="9">
         <v>3</v>
       </c>
+      <c r="K21" s="9">
+        <v>3.5</v>
+      </c>
       <c r="L21" s="9" t="s">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="M21" s="9" t="s">
         <v>147</v>
@@ -7024,8 +7045,11 @@
       <c r="I22">
         <v>5</v>
       </c>
+      <c r="K22" s="14">
+        <v>8</v>
+      </c>
       <c r="L22" t="s">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="M22" s="6">
         <v>42339</v>
@@ -7053,6 +7077,7 @@
       <c r="I23">
         <v>4</v>
       </c>
+      <c r="K23" s="14"/>
       <c r="L23" t="s">
         <v>38</v>
       </c>
@@ -7085,8 +7110,11 @@
       <c r="I24">
         <v>6</v>
       </c>
+      <c r="K24" s="14">
+        <v>5</v>
+      </c>
       <c r="L24" t="s">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="M24" s="6">
         <v>42339</v>
@@ -7203,8 +7231,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="F52" sqref="F52"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="F60" sqref="F60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
@@ -8108,7 +8136,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="49" spans="1:5" s="11" customFormat="1">
+    <row r="49" spans="1:6" s="11" customFormat="1">
       <c r="A49" s="11">
         <v>4</v>
       </c>
@@ -8126,7 +8154,7 @@
         <v>31.2</v>
       </c>
     </row>
-    <row r="50" spans="1:5" s="11" customFormat="1">
+    <row r="50" spans="1:6" s="11" customFormat="1">
       <c r="A50" s="11">
         <v>4</v>
       </c>
@@ -8144,7 +8172,7 @@
         <v>31.2</v>
       </c>
     </row>
-    <row r="51" spans="1:5" s="11" customFormat="1">
+    <row r="51" spans="1:6" s="11" customFormat="1">
       <c r="A51" s="11">
         <v>4</v>
       </c>
@@ -8162,7 +8190,7 @@
         <v>31.2</v>
       </c>
     </row>
-    <row r="52" spans="1:5" s="11" customFormat="1">
+    <row r="52" spans="1:6" s="11" customFormat="1">
       <c r="A52" s="11">
         <v>4</v>
       </c>
@@ -8174,13 +8202,16 @@
         <v>35</v>
       </c>
       <c r="D52" s="11">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E52" s="11">
-        <v>31.2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" s="11" customFormat="1">
+        <v>28.7</v>
+      </c>
+      <c r="F52" s="11" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" s="11" customFormat="1">
       <c r="A53" s="11">
         <v>4</v>
       </c>
@@ -8192,13 +8223,16 @@
         <v>31.5</v>
       </c>
       <c r="D53" s="11">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E53" s="11">
-        <v>31.2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" s="11" customFormat="1">
+        <v>25.2</v>
+      </c>
+      <c r="F53" s="11" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" s="11" customFormat="1">
       <c r="A54" s="11">
         <v>4</v>
       </c>
@@ -8210,13 +8244,16 @@
         <v>28</v>
       </c>
       <c r="D54" s="11">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="E54" s="11">
-        <v>31.2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" s="11" customFormat="1">
+        <v>22.2</v>
+      </c>
+      <c r="F54" s="11" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" s="11" customFormat="1">
       <c r="A55" s="11">
         <v>4</v>
       </c>
@@ -8228,13 +8265,16 @@
         <v>24.5</v>
       </c>
       <c r="D55" s="11">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="E55" s="11">
-        <v>31.2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" s="11" customFormat="1">
+        <v>14.2</v>
+      </c>
+      <c r="F55" s="11" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" s="11" customFormat="1">
       <c r="A56" s="11">
         <v>4</v>
       </c>
@@ -8246,13 +8286,16 @@
         <v>21</v>
       </c>
       <c r="D56" s="11">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="E56" s="11">
-        <v>31.2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" s="11" customFormat="1">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="F56" s="11" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" s="11" customFormat="1">
       <c r="A57" s="11">
         <v>4</v>
       </c>
@@ -8264,13 +8307,13 @@
         <v>17.5</v>
       </c>
       <c r="D57" s="11">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="E57" s="11">
-        <v>31.2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" s="11" customFormat="1">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" s="11" customFormat="1">
       <c r="A58" s="11">
         <v>4</v>
       </c>
@@ -8282,13 +8325,13 @@
         <v>14</v>
       </c>
       <c r="D58" s="11">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="E58" s="11">
-        <v>31.2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" s="11" customFormat="1">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" s="11" customFormat="1">
       <c r="A59" s="11">
         <v>4</v>
       </c>
@@ -8300,13 +8343,13 @@
         <v>10.5</v>
       </c>
       <c r="D59" s="11">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="E59" s="11">
-        <v>31.2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" s="11" customFormat="1">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" s="11" customFormat="1">
       <c r="A60" s="11">
         <v>4</v>
       </c>
@@ -8318,13 +8361,13 @@
         <v>7</v>
       </c>
       <c r="D60" s="11">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="E60" s="11">
-        <v>31.2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" s="11" customFormat="1">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" s="11" customFormat="1">
       <c r="A61" s="11">
         <v>4</v>
       </c>
@@ -8336,13 +8379,13 @@
         <v>3.5</v>
       </c>
       <c r="D61" s="11">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="E61" s="11">
-        <v>31.2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" s="11" customFormat="1">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" s="11" customFormat="1">
       <c r="A62" s="11">
         <v>4</v>
       </c>
@@ -8354,13 +8397,13 @@
         <v>0</v>
       </c>
       <c r="D62" s="11">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="E62" s="11">
-        <v>31.2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="B63" s="6"/>
     </row>
   </sheetData>
